--- a/biology/Zoologie/Crotaphytidae/Crotaphytidae.xlsx
+++ b/biology/Zoologie/Crotaphytidae/Crotaphytidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Crotaphytidae sont une famille de sauriens. Elle a été créée par Hobart Muir Smith &amp; Edmund Darrell Brodie III en 1982.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent dans l'ouest des États-Unis et dans le nord du Mexique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des lézards ne dépassant pas une quinzaine de centimètres sans la queue, celle-ci pouvant être aussi longue que le corps. Ils sont principalement insectivores mais consomment également à l'occasion de petits vertébrés. Ils vivent dans des milieux arides, et sont capables de vocaliser en cas de stress.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 juillet 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 juillet 2012) :
 Crotaphytus Holbrook, 1842
 Gambelia Baird, 1859</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est quelquefois considérée comme une sous-famille, les Crotaphytinae, classée dans la famille des Iguanidae. La classification actuelle est toutefois maintenant largement acceptée[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est quelquefois considérée comme une sous-famille, les Crotaphytinae, classée dans la famille des Iguanidae. La classification actuelle est toutefois maintenant largement acceptée.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Smith &amp; Brodie, 1982 : A Guide to Field Identification. Reptiles of North America. New York: Golden Press.</t>
         </is>
